--- a/Example2.xlsx
+++ b/Example2.xlsx
@@ -34,13 +34,13 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>./files_to_scan/POD1 copy.PNG</t>
+    <t>./files_to_scan/POD1.PNG</t>
   </si>
   <si>
     <t>./output-marked_img/852957008.jpg</t>
   </si>
   <si>
-    <t>./files_to_scan/POD1.PNG</t>
+    <t>./files_to_scan/POD1_rotated180.PNG</t>
   </si>
 </sst>
 </file>
